--- a/DeepLearning/myExample.xlsx
+++ b/DeepLearning/myExample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\DeepLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235A020F-4172-49F4-BADA-1D0D42611D8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958775EE-ACF6-4296-A413-DABC16F8ECD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{6158B100-19FF-44A7-BE10-BCD596E29179}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{92CCEFBB-8A9B-4E1C-B0FE-E01AAF49AE49}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25970F91-9CAB-47A5-AD32-336DFF11D136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC888F3E-8DA4-468B-B7C9-519824592746}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1309D95B-5251-4432-856B-823E80C7223B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B309BA-5799-4615-8AFC-52E060DE83CE}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
